--- a/com.seleniumcertification.com/src/utilities/excel_data.xlsx
+++ b/com.seleniumcertification.com/src/utilities/excel_data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
   <si>
     <t>Test Case</t>
   </si>
@@ -122,9 +122,6 @@
   </si>
   <si>
     <t>ghijk</t>
-  </si>
-  <si>
-    <t>Forqapassword1</t>
   </si>
   <si>
     <t>abc@yahoo.com</t>
@@ -653,53 +650,53 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>41</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>44</v>
-      </c>
       <c r="C2" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>46</v>
-      </c>
       <c r="C3" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>48</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>49</v>
       </c>
       <c r="D4" s="11"/>
     </row>
@@ -714,7 +711,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -894,9 +891,7 @@
       <c r="C14" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>34</v>
-      </c>
+      <c r="D14" s="6"/>
       <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:5" customFormat="1" x14ac:dyDescent="0.3">
@@ -907,9 +902,7 @@
       <c r="C15" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>34</v>
-      </c>
+      <c r="D15" s="6"/>
       <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:5" customFormat="1" x14ac:dyDescent="0.3">
@@ -921,7 +914,7 @@
         <v>22</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E16" s="6"/>
     </row>
@@ -934,7 +927,7 @@
         <v>23</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E17" s="6"/>
     </row>
@@ -960,7 +953,7 @@
         <v>25</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E19" s="6"/>
     </row>
@@ -999,7 +992,7 @@
         <v>28</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E22" s="6"/>
     </row>
@@ -1012,7 +1005,7 @@
         <v>29</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E23" s="6"/>
     </row>
